--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="543">
   <si>
     <t>key</t>
   </si>
@@ -44,10 +44,10 @@
     <t>version_mixs_stx_seq</t>
   </si>
   <si>
-    <t>Spatial Transcriptomics Sequencing [Minimum Information about any (x) Sequence (MIxS)]</t>
-  </si>
-  <si>
-    <t>TBC mixs_stx_seq</t>
+    <t>Spatial Transcriptomics Sequencing (ST-Seq) [Minimum Information about any (x) Sequence (MIxS)]</t>
+  </si>
+  <si>
+    <t>Spatial transcriptomics sequencing, which provides a comprehensive spatial map of gene expression within tissues, adhering to the Minimum Information about any (x) Sequence (MIxS) standard, detailing the contextual information about sampling and sequencing processes.</t>
   </si>
   <si>
     <t>mixs</t>
@@ -113,7 +113,7 @@
     <t>A detailed description of the project which includes research goals and experimental approach. Project description should be fewer than 300 words, such as an abstract from a grant application or publication.</t>
   </si>
   <si>
-    <t>e.g. This project explores the intricate details of single cells in the human body, focusing on their structure, function, and behavior. By studying individual cells, it aims to uncover how they contribute to overall health, disease progression, and human biology. This research can provide deeper insights into cellular processes, paving the way for advancements in medical treatments and personalised medicine.</t>
+    <t>e.g. This project explores the intricate details of single cells in the human body, focusing on their structure, function, and behaviour. By studying individual cells, it aims to uncover how they contribute to overall health, disease progression, and human biology. This research can provide deeper insights into cellular processes, paving the way for advancements in medical treatments and personalised medicine.</t>
   </si>
   <si>
     <t>The workflow or protocol followed during the study.</t>
@@ -143,7 +143,7 @@
     <t>Variable aspects of an experiment design that can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. This field accepts ontology terms from Experimental Factor Ontology (EFO) and/or Ontology for Biomedical Investigations (OBI)</t>
   </si>
   <si>
-    <t>e.g. time series design</t>
+    <t>e.g. EFO:0001779</t>
   </si>
   <si>
     <t>A related resource that is referenced, cited, or otherwise associated to the sequence.</t>
@@ -179,12 +179,18 @@
     <t>Spatial Transcriptomics</t>
   </si>
   <si>
+    <t>orcid_id</t>
+  </si>
+  <si>
     <t>givenName</t>
   </si>
   <si>
     <t>familyName</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>affiliation</t>
   </si>
   <si>
@@ -194,25 +200,43 @@
     <t>funding</t>
   </si>
   <si>
+    <t>orcid_id (optional)</t>
+  </si>
+  <si>
+    <t>email (optional)</t>
+  </si>
+  <si>
     <t>funder (optional)</t>
   </si>
   <si>
     <t>funding (optional)</t>
   </si>
   <si>
-    <t>The first name of a Person.</t>
+    <t>A 16-digit number that uniquely identify researchers.</t>
+  </si>
+  <si>
+    <t>e.g. 0000-1234-5678-9012</t>
+  </si>
+  <si>
+    <t>A first name (or given name) is the personal name given to an individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Jane</t>
   </si>
   <si>
-    <t>The last name of a Person.</t>
+    <t>A last name (or surname) is the family name passed down from one generation to the next for the individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Doe</t>
   </si>
   <si>
-    <t>An organization that this person is affiliated with. For example, a school/university, a club, or a team.</t>
+    <t>A unique identifier used to send and receive electronic messages (emails) over the internet.</t>
+  </si>
+  <si>
+    <t>e.g. jane.doe@example.com</t>
+  </si>
+  <si>
+    <t>An organisation or institution that this person is associated with.</t>
   </si>
   <si>
     <t>e.g. University of Liverpool</t>
@@ -224,7 +248,7 @@
     <t>e.g. BBSRC</t>
   </si>
   <si>
-    <t>A Grant that directly or indirectly provide funding or sponsorship for this item.</t>
+    <t>A grant that directly or indirectly provides funding or sponsorship for the person to conduct the study.</t>
   </si>
   <si>
     <t>e.g. GRAK3489</t>
@@ -464,7 +488,7 @@
     <t>An identifier of the strain of the organism, if applicable.</t>
   </si>
   <si>
-    <t>e.g. CCAP1119/17</t>
+    <t>e.g. XY [en:42]</t>
   </si>
   <si>
     <t>The type of tissue sampled for the study.</t>
@@ -482,7 +506,7 @@
     <t>The geographical origin of the sample as defined by latitude and longitude. The values should be reported in decimal degrees, limited to 8 decimal points, and in WGS84 system</t>
   </si>
   <si>
-    <t>e.g. 52.2053</t>
+    <t>e.g. 50.123</t>
   </si>
   <si>
     <t>Report the major environmental system the sample or specimen came from. The system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). Reference: https://github.com/EnvironmentOntology/envo/wiki/Using-ENVO-with-MIxS.</t>
@@ -1535,10 +1559,10 @@
     <t>Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. Always applied to the haploid chromosome count of a eukaryote</t>
   </si>
   <si>
+    <t>lib_prep_id</t>
+  </si>
+  <si>
     <t>file_id</t>
-  </si>
-  <si>
-    <t>lib_prep_id</t>
   </si>
   <si>
     <t>read_1_file</t>
@@ -1623,7 +1647,7 @@
     <t>e.g. file001</t>
   </si>
   <si>
-    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, etc.</t>
+    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, archive etc.</t>
   </si>
   <si>
     <t>e.g. fastq</t>
@@ -2018,8 +2042,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="243.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2066,7 +2090,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E2DD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FE41" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2191,7 +2215,7 @@
       <c r="I4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DA7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E187" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:I4"/>
   </mergeCells>
@@ -2233,10 +2257,10 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AF5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="4:32">
@@ -2244,10 +2268,10 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="AF6" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="4:32">
@@ -2255,10 +2279,10 @@
         <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AF7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="4:32">
@@ -2266,10 +2290,10 @@
         <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="AF8" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="4:32">
@@ -2277,10 +2301,10 @@
         <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AF9" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="4:32">
@@ -2288,10 +2312,10 @@
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AF10" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="4:32">
@@ -2299,10 +2323,10 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AF11" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="4:32">
@@ -2310,414 +2334,414 @@
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AF12" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="4:32">
       <c r="F13" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AF13" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="4:32">
       <c r="F14" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AF14" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="4:32">
       <c r="F15" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AF15" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="4:32">
       <c r="F16" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="AF16" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="6:32">
       <c r="F17" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AF17" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="6:32">
       <c r="F18" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AF18" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="6:32">
       <c r="F19" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="AF19" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="6:32">
       <c r="F20" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AF20" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="6:32">
       <c r="F21" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AF21" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="6:32">
       <c r="F22" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AF22" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="6:32">
       <c r="F23" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AF23" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="6:32">
       <c r="F24" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="6:32">
       <c r="F25" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AF25" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="6:32">
       <c r="F26" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AF26" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="6:32">
       <c r="F27" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="AF27" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="6:32">
       <c r="F28" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="AF28" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="6:32">
       <c r="F29" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="6:32">
       <c r="F30" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AF30" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="6:32">
       <c r="F31" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AF31" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="6:32">
       <c r="F32" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="6:32">
       <c r="F33" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AF33" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="6:32">
       <c r="F34" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AF34" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="6:32">
       <c r="F35" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AF35" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="6:32">
       <c r="F36" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="6:32">
       <c r="F37" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="6:32">
       <c r="F38" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="6:32">
       <c r="F39" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="6:32">
       <c r="F40" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="6:32">
       <c r="F41" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="6:32">
       <c r="F42" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="6:32">
       <c r="F43" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="6:32">
       <c r="F44" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="6:32">
       <c r="F45" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="6:32">
       <c r="F46" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="6:32">
       <c r="F47" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="6:32">
       <c r="F48" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2727,71 +2751,101 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -2799,13 +2853,16 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="85EE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="85E3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:E4">
+  <conditionalFormatting sqref="A1:H4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -2863,223 +2920,223 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -3087,112 +3144,112 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Y3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC3" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="Z3" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="AD3" s="5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -3237,7 +3294,7 @@
       <c r="AK4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E0BF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AA6F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AK4"/>
   </mergeCells>
@@ -3325,112 +3382,112 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -3438,112 +3495,112 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -3551,112 +3608,112 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -3701,7 +3758,7 @@
       <c r="AK4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B64A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="950C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AK4"/>
   </mergeCells>
@@ -3773,58 +3830,58 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -3832,58 +3889,58 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3891,58 +3948,58 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3969,7 +4026,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8A1D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F01F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4005,16 +4062,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="193.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="195.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="88.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4022,40 +4079,40 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>505</v>
+        <v>451</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>443</v>
+        <v>513</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4063,40 +4120,40 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>516</v>
+        <v>381</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>373</v>
+        <v>481</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4104,40 +4161,40 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>474</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4158,7 +4215,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA1A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C9E5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
@@ -2090,7 +2090,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="FE41" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B0FE" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2215,7 +2215,7 @@
       <c r="I4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E187" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EC18" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:I4"/>
   </mergeCells>
@@ -2858,7 +2858,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="85E3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF40" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3294,7 +3294,7 @@
       <c r="AK4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AA6F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B7D5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AK4"/>
   </mergeCells>
@@ -3758,7 +3758,7 @@
       <c r="AK4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="950C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BD8C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AK4"/>
   </mergeCells>
@@ -4026,7 +4026,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F01F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DA25" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4215,7 +4215,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C9E5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CC28" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
@@ -2090,7 +2090,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B0FE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C9FB" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2215,7 +2215,7 @@
       <c r="I4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EC18" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="98A4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:I4"/>
   </mergeCells>
@@ -2858,7 +2858,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF40" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C173" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3294,7 +3294,7 @@
       <c r="AK4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B7D5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="88AD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AK4"/>
   </mergeCells>
@@ -3758,7 +3758,7 @@
       <c r="AK4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BD8C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9C0A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AK4"/>
   </mergeCells>
@@ -4026,7 +4026,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DA25" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B7DD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4215,7 +4215,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC28" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8564" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="544">
   <si>
     <t>key</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Spatial Transcriptomics Sequencing (ST-Seq) [Minimum Information about any (x) Sequence (MIxS)]</t>
   </si>
   <si>
-    <t>Spatial transcriptomics sequencing, which provides a comprehensive spatial map of gene expression within tissues, adhering to the Minimum Information about any (x) Sequence (MIxS) standard, detailing the contextual information about sampling and sequencing processes.</t>
+    <t>Spatial transcriptomics sequencing, using  Minimum Information about any (x) Sequence (MIxS) standard, detailing the contextual information about sampling and sequencing processes.</t>
   </si>
   <si>
     <t>mixs</t>
@@ -753,6 +753,9 @@
   </si>
   <si>
     <t>Holdfast Fungi</t>
+  </si>
+  <si>
+    <t>Inflorescence</t>
   </si>
   <si>
     <t>Intestine</t>
@@ -2043,7 +2046,7 @@
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="88.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="243.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="164.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2090,7 +2093,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C9FB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="83EB" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2215,7 +2218,7 @@
       <c r="I4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="98A4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E2D1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:I4"/>
   </mergeCells>
@@ -2241,7 +2244,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:AF79"/>
+  <dimension ref="D5:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2260,7 +2263,7 @@
         <v>217</v>
       </c>
       <c r="AF5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="4:32">
@@ -2271,7 +2274,7 @@
         <v>218</v>
       </c>
       <c r="AF6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="4:32">
@@ -2282,7 +2285,7 @@
         <v>219</v>
       </c>
       <c r="AF7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="4:32">
@@ -2293,7 +2296,7 @@
         <v>220</v>
       </c>
       <c r="AF8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="4:32">
@@ -2304,7 +2307,7 @@
         <v>221</v>
       </c>
       <c r="AF9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="4:32">
@@ -2315,7 +2318,7 @@
         <v>222</v>
       </c>
       <c r="AF10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="4:32">
@@ -2326,7 +2329,7 @@
         <v>223</v>
       </c>
       <c r="AF11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="4:32">
@@ -2337,7 +2340,7 @@
         <v>224</v>
       </c>
       <c r="AF12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="4:32">
@@ -2345,7 +2348,7 @@
         <v>225</v>
       </c>
       <c r="AF13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="4:32">
@@ -2353,7 +2356,7 @@
         <v>226</v>
       </c>
       <c r="AF14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="4:32">
@@ -2361,7 +2364,7 @@
         <v>227</v>
       </c>
       <c r="AF15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="4:32">
@@ -2369,7 +2372,7 @@
         <v>228</v>
       </c>
       <c r="AF16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="6:32">
@@ -2377,7 +2380,7 @@
         <v>229</v>
       </c>
       <c r="AF17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="6:32">
@@ -2385,7 +2388,7 @@
         <v>230</v>
       </c>
       <c r="AF18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="6:32">
@@ -2393,7 +2396,7 @@
         <v>231</v>
       </c>
       <c r="AF19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="6:32">
@@ -2401,7 +2404,7 @@
         <v>232</v>
       </c>
       <c r="AF20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="6:32">
@@ -2409,7 +2412,7 @@
         <v>233</v>
       </c>
       <c r="AF21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="6:32">
@@ -2417,7 +2420,7 @@
         <v>234</v>
       </c>
       <c r="AF22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="6:32">
@@ -2425,7 +2428,7 @@
         <v>235</v>
       </c>
       <c r="AF23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="6:32">
@@ -2433,7 +2436,7 @@
         <v>236</v>
       </c>
       <c r="AF24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="6:32">
@@ -2441,7 +2444,7 @@
         <v>237</v>
       </c>
       <c r="AF25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="6:32">
@@ -2449,7 +2452,7 @@
         <v>238</v>
       </c>
       <c r="AF26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="6:32">
@@ -2457,7 +2460,7 @@
         <v>239</v>
       </c>
       <c r="AF27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="6:32">
@@ -2465,7 +2468,7 @@
         <v>240</v>
       </c>
       <c r="AF28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="6:32">
@@ -2473,7 +2476,7 @@
         <v>241</v>
       </c>
       <c r="AF29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="6:32">
@@ -2481,7 +2484,7 @@
         <v>242</v>
       </c>
       <c r="AF30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="6:32">
@@ -2489,7 +2492,7 @@
         <v>243</v>
       </c>
       <c r="AF31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="6:32">
@@ -2497,7 +2500,7 @@
         <v>244</v>
       </c>
       <c r="AF32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="6:32">
@@ -2505,7 +2508,7 @@
         <v>245</v>
       </c>
       <c r="AF33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="6:32">
@@ -2513,7 +2516,7 @@
         <v>246</v>
       </c>
       <c r="AF34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="6:32">
@@ -2521,7 +2524,7 @@
         <v>247</v>
       </c>
       <c r="AF35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="6:32">
@@ -2742,6 +2745,11 @@
     <row r="79" spans="6:6">
       <c r="F79" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +2866,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C173" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="862A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3294,7 +3302,7 @@
       <c r="AK4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="88AD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DBC5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AK4"/>
   </mergeCells>
@@ -3305,7 +3313,7 @@
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>HiddenDropdowns!$F$5:$F$79</formula1>
+      <formula1>HiddenDropdowns!$F$5:$F$80</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="R5:R1005">
       <formula1>"Enriched,Normalised,Screened"</formula1>
@@ -3382,112 +3390,112 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>126</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -3495,112 +3503,112 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>175</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -3608,112 +3616,112 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AC3" s="5" t="s">
         <v>176</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -3758,7 +3766,7 @@
       <c r="AK4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9C0A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9EBA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AK4"/>
   </mergeCells>
@@ -3830,58 +3838,58 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -3889,58 +3897,58 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3948,58 +3956,58 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4026,7 +4034,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B7DD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D8BD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4079,40 +4087,40 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4120,40 +4128,40 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4161,40 +4169,40 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4215,7 +4223,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8564" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EB31" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
@@ -2093,7 +2093,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="83EB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="906B" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2218,7 +2218,7 @@
       <c r="I4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E2D1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C270" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:I4"/>
   </mergeCells>
@@ -2866,7 +2866,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="862A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="916E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3302,7 +3302,7 @@
       <c r="AK4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DBC5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BF8D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AK4"/>
   </mergeCells>
@@ -3766,7 +3766,7 @@
       <c r="AK4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9EBA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8830" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AK4"/>
   </mergeCells>
@@ -4034,7 +4034,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D8BD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E28D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4223,7 +4223,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EB31" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9F9A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="663">
   <si>
     <t>key</t>
   </si>
@@ -119,7 +119,7 @@
     <t>The workflow or protocol followed during the study.</t>
   </si>
   <si>
-    <t>e.g. spatial_transcriptomics</t>
+    <t>e.g. Laser microdissection</t>
   </si>
   <si>
     <t>The sorting or visualisation technology used.</t>
@@ -338,9 +338,6 @@
     <t>ref_biomaterial</t>
   </si>
   <si>
-    <t>host_spec_range</t>
-  </si>
-  <si>
     <t>tax_ident</t>
   </si>
   <si>
@@ -443,9 +440,6 @@
     <t>ref_biomaterial (optional)</t>
   </si>
   <si>
-    <t>host_spec_range (optional)</t>
-  </si>
-  <si>
     <t>tax_ident (optional)</t>
   </si>
   <si>
@@ -506,7 +500,7 @@
     <t>The geographical origin of the sample as defined by latitude and longitude. The values should be reported in decimal degrees, limited to 8 decimal points, and in WGS84 system</t>
   </si>
   <si>
-    <t>e.g. 50.123</t>
+    <t>e.g. 50.123 6.24512</t>
   </si>
   <si>
     <t>Report the major environmental system the sample or specimen came from. The system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). Reference: https://github.com/EnvironmentOntology/envo/wiki/Using-ENVO-with-MIxS.</t>
@@ -626,12 +620,6 @@
     <t>Primary publication if isolated before genome publication; otherwise, primary genome report</t>
   </si>
   <si>
-    <t>The range and diversity of host species that an organism is capable of infecting, defined by NCBI taxonomy identifier</t>
-  </si>
-  <si>
-    <t>e.g. 9606</t>
-  </si>
-  <si>
     <t>The phylogenetic marker(s) used to assign an organism name to the SAG or MAG</t>
   </si>
   <si>
@@ -689,6 +677,9 @@
     <t>Bodywall</t>
   </si>
   <si>
+    <t>Bone Marrow Hematopoietic Niches</t>
+  </si>
+  <si>
     <t>Bract</t>
   </si>
   <si>
@@ -704,6 +695,18 @@
     <t>Cephalothorax</t>
   </si>
   <si>
+    <t>Cortex Development In Roots</t>
+  </si>
+  <si>
+    <t>Developing Brain</t>
+  </si>
+  <si>
+    <t>Developing Embryo</t>
+  </si>
+  <si>
+    <t>Developing Seed Coat</t>
+  </si>
+  <si>
     <t>Dna Extract</t>
   </si>
   <si>
@@ -713,6 +716,9 @@
     <t>Eggshell</t>
   </si>
   <si>
+    <t>Embryonic Stem Cells</t>
+  </si>
+  <si>
     <t>Endocrine Tissue</t>
   </si>
   <si>
@@ -725,12 +731,30 @@
     <t>Fat Body</t>
   </si>
   <si>
+    <t>Fetal Heart</t>
+  </si>
+  <si>
+    <t>Fetal Kidney</t>
+  </si>
+  <si>
+    <t>Fetal Liver</t>
+  </si>
+  <si>
+    <t>Fetal Lung</t>
+  </si>
+  <si>
     <t>Fin</t>
   </si>
   <si>
+    <t>Floral Meristem</t>
+  </si>
+  <si>
     <t>Flower</t>
   </si>
   <si>
+    <t>Gastrulation-Stage Embryo</t>
+  </si>
+  <si>
     <t>Gill Animal</t>
   </si>
   <si>
@@ -740,6 +764,9 @@
     <t>Gonad</t>
   </si>
   <si>
+    <t>Gut</t>
+  </si>
+  <si>
     <t>Hair</t>
   </si>
   <si>
@@ -755,6 +782,9 @@
     <t>Holdfast Fungi</t>
   </si>
   <si>
+    <t>Hypocotyl</t>
+  </si>
+  <si>
     <t>Inflorescence</t>
   </si>
   <si>
@@ -767,9 +797,15 @@
     <t>Leaf</t>
   </si>
   <si>
+    <t>Leaf Primordia</t>
+  </si>
+  <si>
     <t>Leg</t>
   </si>
   <si>
+    <t>Limb Bud</t>
+  </si>
+  <si>
     <t>Liver</t>
   </si>
   <si>
@@ -797,6 +833,15 @@
     <t>Mycorrhiza</t>
   </si>
   <si>
+    <t>Neonatal Retina</t>
+  </si>
+  <si>
+    <t>Neural Crest Cells</t>
+  </si>
+  <si>
+    <t>Nodules</t>
+  </si>
+  <si>
     <t>Not Applicable</t>
   </si>
   <si>
@@ -806,6 +851,9 @@
     <t>Not Provided</t>
   </si>
   <si>
+    <t>Olfactory Epithelium</t>
+  </si>
+  <si>
     <t>Other Fungal Tissue</t>
   </si>
   <si>
@@ -824,18 +872,36 @@
     <t>Oviduct</t>
   </si>
   <si>
+    <t>Ovule Primordium</t>
+  </si>
+  <si>
     <t>Pancreas</t>
   </si>
   <si>
     <t>Petiole</t>
   </si>
   <si>
+    <t>Placental Trophoblast Cells</t>
+  </si>
+  <si>
+    <t>Pollen Mother Cells</t>
+  </si>
+  <si>
     <t>Posterior Body</t>
   </si>
   <si>
+    <t>Postnatal Thymus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhizome Meristem </t>
+  </si>
+  <si>
     <t>Root</t>
   </si>
   <si>
+    <t>Root Apical Meristem</t>
+  </si>
+  <si>
     <t>Scales</t>
   </si>
   <si>
@@ -851,9 +917,15 @@
     <t>Shoot</t>
   </si>
   <si>
+    <t>Shoot Apical Meristem</t>
+  </si>
+  <si>
     <t>Skin</t>
   </si>
   <si>
+    <t>Somitic Mesoderm</t>
+  </si>
+  <si>
     <t>Sperm Seminal Fluid</t>
   </si>
   <si>
@@ -893,9 +965,15 @@
     <t>Thorax</t>
   </si>
   <si>
+    <t>Trichome Precursor Cells</t>
+  </si>
+  <si>
     <t>Unicellular Organisms In Culture</t>
   </si>
   <si>
+    <t>Vascular Cambium</t>
+  </si>
+  <si>
     <t>Whole Organism</t>
   </si>
   <si>
@@ -1097,6 +1175,9 @@
     <t>pool_creation_protocol</t>
   </si>
   <si>
+    <t>design_description</t>
+  </si>
+  <si>
     <t>library_prep_kit (optional)</t>
   </si>
   <si>
@@ -1169,6 +1250,9 @@
     <t>pool_creation_protocol (optional)</t>
   </si>
   <si>
+    <t>design_description (optional)</t>
+  </si>
+  <si>
     <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
   </si>
   <si>
@@ -1379,6 +1463,9 @@
     <t xml:space="preserve">e.g. </t>
   </si>
   <si>
+    <t>The design of the library including details of how it was constructed.</t>
+  </si>
+  <si>
     <t>sequencing_id</t>
   </si>
   <si>
@@ -1562,6 +1649,255 @@
     <t>Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. Always applied to the haploid chromosome count of a eukaryote</t>
   </si>
   <si>
+    <t>454 Gs</t>
+  </si>
+  <si>
+    <t>454 Gs 20</t>
+  </si>
+  <si>
+    <t>454 Gs Flx</t>
+  </si>
+  <si>
+    <t>454 Gs Flx Titanium</t>
+  </si>
+  <si>
+    <t>454 Gs Flx+</t>
+  </si>
+  <si>
+    <t>454 Gs Junior</t>
+  </si>
+  <si>
+    <t>Ab 310 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3130 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3130Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3500 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3500Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3730 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3730Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500Xl-W Genetic Analysis System</t>
+  </si>
+  <si>
+    <t>Ab Solid 3 Plus System</t>
+  </si>
+  <si>
+    <t>Ab Solid 4 System</t>
+  </si>
+  <si>
+    <t>Ab Solid 4Hq System</t>
+  </si>
+  <si>
+    <t>Ab Solid Pi System</t>
+  </si>
+  <si>
+    <t>Ab Solid System</t>
+  </si>
+  <si>
+    <t>Ab Solid System 2.0</t>
+  </si>
+  <si>
+    <t>Ab Solid System 3.0</t>
+  </si>
+  <si>
+    <t>Bgiseq-50</t>
+  </si>
+  <si>
+    <t>Bgiseq-500</t>
+  </si>
+  <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>Dnbseq-G400</t>
+  </si>
+  <si>
+    <t>Dnbseq-G400 Fast</t>
+  </si>
+  <si>
+    <t>Dnbseq-G50</t>
+  </si>
+  <si>
+    <t>Dnbseq-T10X4Rs</t>
+  </si>
+  <si>
+    <t>Dnbseq-T7</t>
+  </si>
+  <si>
+    <t>Element Aviti</t>
+  </si>
+  <si>
+    <t>Fastaseq 300</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>Genius</t>
+  </si>
+  <si>
+    <t>Genocare 1600</t>
+  </si>
+  <si>
+    <t>Genolab M</t>
+  </si>
+  <si>
+    <t>Gridion</t>
+  </si>
+  <si>
+    <t>Gs111</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer Ii</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer Iix</t>
+  </si>
+  <si>
+    <t>Illumina Hiscansq</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 1000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 1500</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 2000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 2500</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 3000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 4000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X Five</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X Ten</t>
+  </si>
+  <si>
+    <t>Illumina Iseq 100</t>
+  </si>
+  <si>
+    <t>Illumina Miniseq</t>
+  </si>
+  <si>
+    <t>Illumina Miseq</t>
+  </si>
+  <si>
+    <t>Illumina Nextseq 500</t>
+  </si>
+  <si>
+    <t>Illumina Nextseq 550</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq 6000</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq X</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq X Plus</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5 Plus</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5 Prime</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>Ion Torrent Pgm</t>
+  </si>
+  <si>
+    <t>Ion Torrent Proton</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5 Xl</t>
+  </si>
+  <si>
+    <t>Mgiseq-2000Rs</t>
+  </si>
+  <si>
+    <t>Minion</t>
+  </si>
+  <si>
+    <t>Nextseq 1000</t>
+  </si>
+  <si>
+    <t>Nextseq 2000</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Pacbio Rs</t>
+  </si>
+  <si>
+    <t>Pacbio Rs Ii</t>
+  </si>
+  <si>
+    <t>Promethion</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Sentosa Sq301</t>
+  </si>
+  <si>
+    <t>Sequel</t>
+  </si>
+  <si>
+    <t>Sequel Ii</t>
+  </si>
+  <si>
+    <t>Sequel Iie</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Ug 100</t>
+  </si>
+  <si>
     <t>lib_prep_id</t>
   </si>
   <si>
@@ -1580,10 +1916,16 @@
     <t>index_2_file</t>
   </si>
   <si>
-    <t>read_checksum</t>
-  </si>
-  <si>
-    <t>index_checksum</t>
+    <t>read_1_checksum</t>
+  </si>
+  <si>
+    <t>read_2_checksum</t>
+  </si>
+  <si>
+    <t>index_1_checksum</t>
+  </si>
+  <si>
+    <t>index_2_checksum</t>
   </si>
   <si>
     <t>white_list_barcode_file</t>
@@ -1595,6 +1937,18 @@
     <t>file_type</t>
   </si>
   <si>
+    <t>read_2_file (optional)</t>
+  </si>
+  <si>
+    <t>index_1_file (optional)</t>
+  </si>
+  <si>
+    <t>read_2_checksum (optional)</t>
+  </si>
+  <si>
+    <t>index_2_checksum (optional)</t>
+  </si>
+  <si>
     <t>white_list_barcode_file (optional)</t>
   </si>
   <si>
@@ -1625,16 +1979,19 @@
     <t>e.g. file2_i2.fastq.gz</t>
   </si>
   <si>
-    <t>Result of a hash function calculated on the content of both the read 1 file and the read 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
-  </si>
-  <si>
-    <t>e.g. d41d8cd98f00b204e9800998ecf8427e,5a105e8b9d40e1329780d62ea2265d8a77a1a45e</t>
-  </si>
-  <si>
-    <t>Result of a hash function calculated on the content of both the index 1 file and the index 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
-  </si>
-  <si>
-    <t>e.g. d3486ae9136e7856bc42212385ea797094475802,b7e23ec29af22b0b4e41da31e868d57226121c84</t>
+    <t>Result of a hash function calculated on the content of the read 1 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>e.g. d41d8cd98f00b204e9800998ecf8427e</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of the read 2 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of  the index 1 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of  the index 2 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
   </si>
   <si>
     <t>A file containing the known cell barcodes in the
@@ -2093,7 +2450,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="906B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="97EC" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2218,7 +2575,7 @@
       <c r="I4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C270" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9C0A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:I4"/>
   </mergeCells>
@@ -2227,12 +2584,9 @@
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
       <formula1>HiddenDropdowns!$D$5:$D$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
-      <formula1>"10X,10X 3',Mas Seq,Smartseq,Vizgen"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
       <formula1>"Distilled Water,Dna-Free Pcr Mix,Empty Collection Device,Empty Collection Tube,Phosphate Buffer,Sterile Swab,Sterile Syringe"</formula1>
@@ -2244,512 +2598,887 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:AF80"/>
+  <dimension ref="D5:AE110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:32">
+    <row r="5" spans="4:31">
       <c r="D5" t="s">
-        <v>44</v>
+        <v>542</v>
       </c>
       <c r="F5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="4:31">
+      <c r="D6" t="s">
+        <v>543</v>
+      </c>
+      <c r="F6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="4:31">
+      <c r="D7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="4:31">
+      <c r="D8" t="s">
+        <v>545</v>
+      </c>
+      <c r="F8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="4:31">
+      <c r="D9" t="s">
+        <v>546</v>
+      </c>
+      <c r="F9" t="s">
         <v>217</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AE9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="4:31">
+      <c r="D10" t="s">
+        <v>547</v>
+      </c>
+      <c r="F10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="4:31">
+      <c r="D11" t="s">
+        <v>548</v>
+      </c>
+      <c r="F11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="4:31">
+      <c r="D12" t="s">
+        <v>549</v>
+      </c>
+      <c r="F12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="4:31">
+      <c r="D13" t="s">
+        <v>550</v>
+      </c>
+      <c r="F13" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="4:31">
+      <c r="D14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F14" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="4:31">
+      <c r="D15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="4:31">
+      <c r="D16" t="s">
+        <v>553</v>
+      </c>
+      <c r="F16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="4:31">
+      <c r="D17" t="s">
+        <v>554</v>
+      </c>
+      <c r="F17" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="4:31">
+      <c r="D18" t="s">
+        <v>555</v>
+      </c>
+      <c r="F18" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="4:31">
+      <c r="D19" t="s">
+        <v>556</v>
+      </c>
+      <c r="F19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="4:31">
+      <c r="D20" t="s">
+        <v>557</v>
+      </c>
+      <c r="F20" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="4:31">
+      <c r="D21" t="s">
+        <v>558</v>
+      </c>
+      <c r="F21" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="4:31">
+      <c r="D22" t="s">
+        <v>559</v>
+      </c>
+      <c r="F22" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="4:31">
+      <c r="D23" t="s">
+        <v>560</v>
+      </c>
+      <c r="F23" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="4:31">
+      <c r="D24" t="s">
+        <v>561</v>
+      </c>
+      <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="4:31">
+      <c r="D25" t="s">
+        <v>562</v>
+      </c>
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="4:31">
+      <c r="D26" t="s">
+        <v>563</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="4:31">
+      <c r="D27" t="s">
+        <v>564</v>
+      </c>
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="4:31">
+      <c r="D28" t="s">
+        <v>565</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="4:31">
+      <c r="D29" t="s">
+        <v>566</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="4:31">
+      <c r="D30" t="s">
+        <v>567</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="4:31">
+      <c r="D31" t="s">
+        <v>568</v>
+      </c>
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="4:31">
+      <c r="D32" t="s">
+        <v>569</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="4:31">
+      <c r="D33" t="s">
+        <v>570</v>
+      </c>
+      <c r="F33" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="4:31">
+      <c r="D34" t="s">
+        <v>571</v>
+      </c>
+      <c r="F34" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="4:31">
+      <c r="D35" t="s">
+        <v>572</v>
+      </c>
+      <c r="F35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="4:31">
+      <c r="D36" t="s">
+        <v>573</v>
+      </c>
+      <c r="F36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="4:31">
+      <c r="D37" t="s">
+        <v>574</v>
+      </c>
+      <c r="F37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="4:31">
+      <c r="D38" t="s">
+        <v>575</v>
+      </c>
+      <c r="F38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="4:31">
+      <c r="D39" t="s">
+        <v>576</v>
+      </c>
+      <c r="F39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="4:31">
+      <c r="D40" t="s">
+        <v>577</v>
+      </c>
+      <c r="F40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="4:31">
+      <c r="D41" t="s">
+        <v>578</v>
+      </c>
+      <c r="F41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="4:31">
+      <c r="D42" t="s">
+        <v>579</v>
+      </c>
+      <c r="F42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="4:31">
+      <c r="D43" t="s">
+        <v>580</v>
+      </c>
+      <c r="F43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="4:31">
+      <c r="D44" t="s">
+        <v>581</v>
+      </c>
+      <c r="F44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="4:31">
+      <c r="D45" t="s">
+        <v>582</v>
+      </c>
+      <c r="F45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="4:31">
+      <c r="D46" t="s">
+        <v>583</v>
+      </c>
+      <c r="F46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="4:31">
+      <c r="D47" t="s">
+        <v>584</v>
+      </c>
+      <c r="F47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="4:31">
+      <c r="D48" t="s">
+        <v>585</v>
+      </c>
+      <c r="F48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6">
+      <c r="D49" t="s">
+        <v>586</v>
+      </c>
+      <c r="F49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6">
+      <c r="D50" t="s">
+        <v>587</v>
+      </c>
+      <c r="F50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6">
+      <c r="D51" t="s">
+        <v>588</v>
+      </c>
+      <c r="F51" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6">
+      <c r="D52" t="s">
+        <v>589</v>
+      </c>
+      <c r="F52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6">
+      <c r="D53" t="s">
+        <v>590</v>
+      </c>
+      <c r="F53" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6">
+      <c r="D54" t="s">
+        <v>591</v>
+      </c>
+      <c r="F54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6">
+      <c r="D55" t="s">
+        <v>592</v>
+      </c>
+      <c r="F55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6">
+      <c r="D56" t="s">
+        <v>593</v>
+      </c>
+      <c r="F56" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6">
+      <c r="D57" t="s">
+        <v>594</v>
+      </c>
+      <c r="F57" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6">
+      <c r="D58" t="s">
+        <v>595</v>
+      </c>
+      <c r="F58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6">
+      <c r="D59" t="s">
+        <v>596</v>
+      </c>
+      <c r="F59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6">
+      <c r="D60" t="s">
+        <v>597</v>
+      </c>
+      <c r="F60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6">
+      <c r="D61" t="s">
+        <v>598</v>
+      </c>
+      <c r="F61" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6">
+      <c r="D62" t="s">
+        <v>599</v>
+      </c>
+      <c r="F62" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6">
+      <c r="D63" t="s">
+        <v>600</v>
+      </c>
+      <c r="F63" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6">
+      <c r="D64" t="s">
+        <v>601</v>
+      </c>
+      <c r="F64" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="D65" t="s">
+        <v>602</v>
+      </c>
+      <c r="F65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="D66" t="s">
+        <v>603</v>
+      </c>
+      <c r="F66" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="D67" t="s">
+        <v>604</v>
+      </c>
+      <c r="F67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68" t="s">
+        <v>605</v>
+      </c>
+      <c r="F68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="D69" t="s">
+        <v>606</v>
+      </c>
+      <c r="F69" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70" t="s">
+        <v>607</v>
+      </c>
+      <c r="F70" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="D71" t="s">
+        <v>608</v>
+      </c>
+      <c r="F71" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6">
+      <c r="D72" t="s">
+        <v>609</v>
+      </c>
+      <c r="F72" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6">
+      <c r="D73" t="s">
+        <v>610</v>
+      </c>
+      <c r="F73" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6">
+      <c r="D74" t="s">
+        <v>611</v>
+      </c>
+      <c r="F74" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6">
+      <c r="D75" t="s">
+        <v>612</v>
+      </c>
+      <c r="F75" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6">
+      <c r="D76" t="s">
+        <v>613</v>
+      </c>
+      <c r="F76" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6">
+      <c r="D77" t="s">
+        <v>614</v>
+      </c>
+      <c r="F77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6">
+      <c r="D78" t="s">
+        <v>615</v>
+      </c>
+      <c r="F78" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6">
+      <c r="D79" t="s">
+        <v>616</v>
+      </c>
+      <c r="F79" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6">
+      <c r="D80" t="s">
+        <v>617</v>
+      </c>
+      <c r="F80" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6">
+      <c r="D81" t="s">
+        <v>618</v>
+      </c>
+      <c r="F81" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6">
+      <c r="D82" t="s">
+        <v>619</v>
+      </c>
+      <c r="F82" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6">
+      <c r="D83" t="s">
+        <v>620</v>
+      </c>
+      <c r="F83" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6">
+      <c r="D84" t="s">
+        <v>621</v>
+      </c>
+      <c r="F84" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6">
+      <c r="D85" t="s">
+        <v>622</v>
+      </c>
+      <c r="F85" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="4:32">
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF6" t="s">
+    <row r="86" spans="4:6">
+      <c r="D86" t="s">
+        <v>623</v>
+      </c>
+      <c r="F86" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="4:32">
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF7" t="s">
+    <row r="87" spans="4:6">
+      <c r="D87" t="s">
+        <v>624</v>
+      </c>
+      <c r="F87" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="4:32">
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF8" t="s">
+    <row r="88" spans="4:6">
+      <c r="F88" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="4:32">
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF9" t="s">
+    <row r="89" spans="4:6">
+      <c r="F89" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="4:32">
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF10" t="s">
+    <row r="90" spans="4:6">
+      <c r="F90" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="4:32">
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF11" t="s">
+    <row r="91" spans="4:6">
+      <c r="F91" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="4:32">
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF12" t="s">
+    <row r="92" spans="4:6">
+      <c r="F92" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="4:32">
-      <c r="F13" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF13" t="s">
+    <row r="93" spans="4:6">
+      <c r="F93" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="4:32">
-      <c r="F14" t="s">
-        <v>226</v>
-      </c>
-      <c r="AF14" t="s">
+    <row r="94" spans="4:6">
+      <c r="F94" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="4:32">
-      <c r="F15" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF15" t="s">
+    <row r="95" spans="4:6">
+      <c r="F95" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="4:32">
-      <c r="F16" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF16" t="s">
+    <row r="96" spans="4:6">
+      <c r="F96" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="6:32">
-      <c r="F17" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF17" t="s">
+    <row r="97" spans="6:6">
+      <c r="F97" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="6:32">
-      <c r="F18" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF18" t="s">
+    <row r="98" spans="6:6">
+      <c r="F98" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="6:32">
-      <c r="F19" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF19" t="s">
+    <row r="99" spans="6:6">
+      <c r="F99" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="6:32">
-      <c r="F20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AF20" t="s">
+    <row r="100" spans="6:6">
+      <c r="F100" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="6:32">
-      <c r="F21" t="s">
-        <v>233</v>
-      </c>
-      <c r="AF21" t="s">
+    <row r="101" spans="6:6">
+      <c r="F101" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="6:32">
-      <c r="F22" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF22" t="s">
+    <row r="102" spans="6:6">
+      <c r="F102" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="6:32">
-      <c r="F23" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF23" t="s">
+    <row r="103" spans="6:6">
+      <c r="F103" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="6:32">
-      <c r="F24" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF24" t="s">
+    <row r="104" spans="6:6">
+      <c r="F104" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="6:32">
-      <c r="F25" t="s">
-        <v>237</v>
-      </c>
-      <c r="AF25" t="s">
+    <row r="105" spans="6:6">
+      <c r="F105" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="6:32">
-      <c r="F26" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF26" t="s">
+    <row r="106" spans="6:6">
+      <c r="F106" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="6:32">
-      <c r="F27" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF27" t="s">
+    <row r="107" spans="6:6">
+      <c r="F107" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="6:32">
-      <c r="F28" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF28" t="s">
+    <row r="108" spans="6:6">
+      <c r="F108" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="6:32">
-      <c r="F29" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF29" t="s">
+    <row r="109" spans="6:6">
+      <c r="F109" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="6:32">
-      <c r="F30" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF30" t="s">
+    <row r="110" spans="6:6">
+      <c r="F110" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="31" spans="6:32">
-      <c r="F31" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="6:32">
-      <c r="F32" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="6:32">
-      <c r="F33" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="34" spans="6:32">
-      <c r="F34" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="35" spans="6:32">
-      <c r="F35" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="36" spans="6:32">
-      <c r="F36" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="6:32">
-      <c r="F37" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="6:32">
-      <c r="F38" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="6:32">
-      <c r="F39" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="6:32">
-      <c r="F40" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="6:32">
-      <c r="F41" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="6:32">
-      <c r="F42" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="43" spans="6:32">
-      <c r="F43" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="6:32">
-      <c r="F44" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="6:32">
-      <c r="F45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="46" spans="6:32">
-      <c r="F46" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="6:32">
-      <c r="F47" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="6:32">
-      <c r="F48" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6">
-      <c r="F49" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6">
-      <c r="F50" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6">
-      <c r="F51" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6">
-      <c r="F52" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6">
-      <c r="F53" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6">
-      <c r="F54" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="55" spans="6:6">
-      <c r="F55" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="56" spans="6:6">
-      <c r="F56" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="6:6">
-      <c r="F57" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="6:6">
-      <c r="F58" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="59" spans="6:6">
-      <c r="F59" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6">
-      <c r="F60" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="61" spans="6:6">
-      <c r="F61" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="62" spans="6:6">
-      <c r="F62" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="6:6">
-      <c r="F63" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="64" spans="6:6">
-      <c r="F64" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6">
-      <c r="F65" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="66" spans="6:6">
-      <c r="F66" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6">
-      <c r="F67" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6">
-      <c r="F68" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="69" spans="6:6">
-      <c r="F69" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6">
-      <c r="F70" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="71" spans="6:6">
-      <c r="F71" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="72" spans="6:6">
-      <c r="F72" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="73" spans="6:6">
-      <c r="F73" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="74" spans="6:6">
-      <c r="F74" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="75" spans="6:6">
-      <c r="F75" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="76" spans="6:6">
-      <c r="F76" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="77" spans="6:6">
-      <c r="F77" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="78" spans="6:6">
-      <c r="F78" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6">
-      <c r="F79" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="80" spans="6:6">
-      <c r="F80" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2866,7 +3595,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="916E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A739" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2881,7 +3610,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2913,17 +3642,16 @@
     <col min="27" max="27" width="47.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="92.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="83.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="103.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="71.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="102.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="253" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="43.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="161.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="127.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="71.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="102.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="253" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="43.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="161.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="127.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:36">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -2931,336 +3659,327 @@
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
-      <c r="A2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="E2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="AD2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AJ2" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="K3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="Q3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AB3" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="AC3" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AD3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE3" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AJ3" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -3299,21 +4018,20 @@
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BF8D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CEA8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:AK4"/>
+    <mergeCell ref="A4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:AK4">
+  <conditionalFormatting sqref="A1:AJ4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>HiddenDropdowns!$F$5:$F$80</formula1>
+      <formula1>HiddenDropdowns!$F$5:$F$110</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="R5:R1005">
       <formula1>"Enriched,Normalised,Screened"</formula1>
@@ -3327,11 +4045,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="AB5:AB1005">
       <formula1>"Commensalism,Free Living,Mutualism,Parasitism,Symbiotic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="AE5:AE1005">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="AD5:AD1005">
       <formula1>"16S Rrna Gene,Multi-Marker Approach,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="AF5:AF1005">
-      <formula1>HiddenDropdowns!$AF$5:$AF$35</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="AE5:AE1005">
+      <formula1>HiddenDropdowns!$AE$5:$AE$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3340,7 +4058,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3383,348 +4101,358 @@
     <col min="35" max="35" width="143.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="32.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="47.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="61" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="U1" s="2" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+        <v>408</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
+        <v>478</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+        <v>479</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -3764,13 +4492,14 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8830" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F3AA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:AK4"/>
+    <mergeCell ref="A4:AL4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:AK4">
+  <conditionalFormatting sqref="A1:AL4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -3838,58 +4567,58 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -3897,58 +4626,58 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3956,58 +4685,58 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4034,7 +4763,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E28D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9C3F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4043,7 +4772,10 @@
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
+      <formula1>HiddenDropdowns!$D$5:$D$87</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
       <formula1>"Other,Paired,Single,Vector"</formula1>
     </dataValidation>
@@ -4063,7 +4795,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4075,137 +4807,155 @@
     <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="193.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="195.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="174.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>513</v>
+        <v>625</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>514</v>
+        <v>626</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>517</v>
+        <v>627</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>518</v>
+        <v>630</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>631</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>525</v>
+        <v>643</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>526</v>
+        <v>644</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>528</v>
+        <v>646</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>530</v>
+        <v>648</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>532</v>
+        <v>650</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>534</v>
+        <v>652</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>536</v>
+        <v>654</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>538</v>
+        <v>655</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>540</v>
+        <v>656</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>657</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>527</v>
+        <v>645</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>529</v>
+        <v>647</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>531</v>
+        <v>649</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>533</v>
+        <v>651</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>535</v>
+        <v>653</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>537</v>
+        <v>653</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>539</v>
+        <v>653</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>541</v>
+        <v>653</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>658</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -4221,13 +4971,15 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9F9A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A5F0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A4:O4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:M4">
+  <conditionalFormatting sqref="A1:O4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
@@ -2450,7 +2450,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="97EC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9820" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2575,7 +2575,7 @@
       <c r="I4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9C0A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BA69" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:I4"/>
   </mergeCells>
@@ -3595,7 +3595,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A739" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9183" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4020,7 +4020,7 @@
       <c r="AJ4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CEA8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C944" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AJ4"/>
   </mergeCells>
@@ -4495,7 +4495,7 @@
       <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F3AA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9DE9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AL4"/>
   </mergeCells>
@@ -4763,7 +4763,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9C3F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B5F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4975,7 +4975,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A5F0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EFE6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="661">
   <si>
     <t>key</t>
   </si>
@@ -1157,426 +1157,420 @@
     <t>samp_vol_we_dna_ext</t>
   </si>
   <si>
+    <t>lib_vector</t>
+  </si>
+  <si>
+    <t>adapters</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>pool_creation_date</t>
+  </si>
+  <si>
+    <t>pool_creation_protocol</t>
+  </si>
+  <si>
+    <t>design_description</t>
+  </si>
+  <si>
+    <t>library_prep_kit (optional)</t>
+  </si>
+  <si>
+    <t>amplification_method (optional)</t>
+  </si>
+  <si>
+    <t>average_size_distribution (optional)</t>
+  </si>
+  <si>
+    <t>lib_construction_method (optional)</t>
+  </si>
+  <si>
+    <t>input_molecule (optional)</t>
+  </si>
+  <si>
+    <t>primer (optional)</t>
+  </si>
+  <si>
+    <t>end_bias (optional)</t>
+  </si>
+  <si>
+    <t>library_strand (optional)</t>
+  </si>
+  <si>
+    <t>spike_type (optional)</t>
+  </si>
+  <si>
+    <t>spike_in_dilution_or_concentration (optional)</t>
+  </si>
+  <si>
+    <t>plate_id (optional)</t>
+  </si>
+  <si>
+    <t>well_row (optional)</t>
+  </si>
+  <si>
+    <t>well_col (optional)</t>
+  </si>
+  <si>
+    <t>cell_phenotype (optional)</t>
+  </si>
+  <si>
+    <t>nucl_acid_amp (optional)</t>
+  </si>
+  <si>
+    <t>nucl_acid_ext (optional)</t>
+  </si>
+  <si>
+    <t>estimated_size (optional)</t>
+  </si>
+  <si>
+    <t>samp_vol_we_dna_ext (optional)</t>
+  </si>
+  <si>
+    <t>lib_vector (optional)</t>
+  </si>
+  <si>
+    <t>adapters (optional)</t>
+  </si>
+  <si>
+    <t>samp_mat_process (optional)</t>
+  </si>
+  <si>
+    <t>pool_creation_date (optional)</t>
+  </si>
+  <si>
+    <t>pool_creation_protocol (optional)</t>
+  </si>
+  <si>
+    <t>design_description (optional)</t>
+  </si>
+  <si>
+    <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
+  </si>
+  <si>
+    <t>e.g. libPrep123</t>
+  </si>
+  <si>
+    <t>A unique alphanumeric reference or identifier assigned to the cell suspension for the sample in the study.</t>
+  </si>
+  <si>
+    <t>e.g. sample123</t>
+  </si>
+  <si>
+    <t>Packaged kits (containing adapters, indexes, enzymes, buffers etc.), tailored for specific sequencing workflows, which allow the simplified preparation of sequencing-ready libraries for small genomes, amplicons, and plasmids</t>
+  </si>
+  <si>
+    <t>e.g. 10X Genomics Single Cell 3' v3</t>
+  </si>
+  <si>
+    <t>The version number of the library preparation kit used for sequencing.</t>
+  </si>
+  <si>
+    <t>e.g. 2</t>
+  </si>
+  <si>
+    <t>The method used to amplify the Complementary DNA (cDNA).</t>
+  </si>
+  <si>
+    <t>e.g. PCR</t>
+  </si>
+  <si>
+    <t>The number of cycles used during the Complementary DNA (cDNA) amplification process.</t>
+  </si>
+  <si>
+    <t>e.g. 12</t>
+  </si>
+  <si>
+    <t>The average length of RNA fragments in base pairs (BP) after library preparation, indicating the quality and suitability of the RNA for sequencing.</t>
+  </si>
+  <si>
+    <t>e.g. 350</t>
+  </si>
+  <si>
+    <t>The library construction method (including version) that was used.</t>
+  </si>
+  <si>
+    <t>e.g. Smart-Seq2</t>
+  </si>
+  <si>
+    <t>The specific fraction of biological macromolecule from which the sequencing library is derived.</t>
+  </si>
+  <si>
+    <t>e.g. RNA</t>
+  </si>
+  <si>
+    <t>The type of primer used for reverse transcription. This allows users to identify content of the cDNA library input for mRNA.</t>
+  </si>
+  <si>
+    <t>e.g. Random</t>
+  </si>
+  <si>
+    <t>The end from which the molecule was sequenced.</t>
+  </si>
+  <si>
+    <t>e.g. 5'</t>
+  </si>
+  <si>
+    <t>The end bias of the library.</t>
+  </si>
+  <si>
+    <t>e.g. 3</t>
+  </si>
+  <si>
+    <t>The Complementary DNA (cDNA) strand of the library from which the reads derived from - sense (first), antisense (second), both or none.</t>
+  </si>
+  <si>
+    <t>e.g. Antisense</t>
+  </si>
+  <si>
+    <t>External RNA added to the sample as a control to assess technical variability and normalization in RNA-sequencing. State whether spike-in was used.</t>
+  </si>
+  <si>
+    <t>e.g. Yes</t>
+  </si>
+  <si>
+    <t>The specific type of external RNA used for spiking in, often indicating the source or nature of the control RNA.</t>
+  </si>
+  <si>
+    <t>e.g. Synthetic RNA</t>
+  </si>
+  <si>
+    <t>The final concentration or dilution (for commercial sets) of the spike in mix.</t>
+  </si>
+  <si>
+    <t>e.g. 1:1000</t>
+  </si>
+  <si>
+    <t>Barcode sequence used on the i5 adapter during library preparation for identifying samples in multiplexed single-cell RNA-sequencing.</t>
+  </si>
+  <si>
+    <t>e.g. ATCACG</t>
+  </si>
+  <si>
+    <t>Barcode sequence used on the i7 adapter to distinguish samples in multiplexed sequencing runs.</t>
+  </si>
+  <si>
+    <t>e.g. CGATGT</t>
+  </si>
+  <si>
+    <t>Specifies if both i5 and i7 indices (dual) or only one index (single) was used for sample identification during sequencing.</t>
+  </si>
+  <si>
+    <t>e.g. Dual</t>
+  </si>
+  <si>
+    <t>The nucleotide sequence of the i5 index used in multiplexing during sequencing.</t>
+  </si>
+  <si>
+    <t>e.g. ATCGTAGC</t>
+  </si>
+  <si>
+    <t>The specific nucleotide sequence of the i7 index used for a sample.</t>
+  </si>
+  <si>
+    <t>e.g. TGCATGCA</t>
+  </si>
+  <si>
+    <t>Identifier for the 96-well plate used in sample preparation.</t>
+  </si>
+  <si>
+    <t>e.g. plate123</t>
+  </si>
+  <si>
+    <t>The row identifier in a 96-well plate indicating the sample's position.</t>
+  </si>
+  <si>
+    <t>e.g. A</t>
+  </si>
+  <si>
+    <t>The column identifier in a 96-well plate indicating the sample's position.</t>
+  </si>
+  <si>
+    <t>e.g. 5</t>
+  </si>
+  <si>
+    <t>The cell marker for the Fluorescence-Activated Cell Sorting (FACS) of cells.</t>
+  </si>
+  <si>
+    <t>e.g. CD41-</t>
+  </si>
+  <si>
+    <t>A link to a literature reference, electronic resource or a standard operating procedure (SOP), that describes the enzymatic amplification (PCR, TMA, NASBA) of specific nucleic acids. The link can be a PMID, DOI or URL.</t>
+  </si>
+  <si>
+    <t>e.g. https://phylogenomics.me/protocols/16s-pcr-protocol/</t>
+  </si>
+  <si>
+    <t>A link to a literature reference, electronic resource or a standard operating procedure (SOP), that describes the material separation to recover the nucleic acid fraction from a sample</t>
+  </si>
+  <si>
+    <t>e.g. https://mobio.com/media/wysiwyg/pdfs/protocols/12888.pdf</t>
+  </si>
+  <si>
+    <t>The estimated size of the genome prior to sequencing in base pairs (bp). Of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period</t>
+  </si>
+  <si>
+    <t>e.g. 300000</t>
+  </si>
+  <si>
+    <t>Volume (ml) or mass (g) of total collected sample processed for DNA extraction.</t>
+  </si>
+  <si>
+    <t>e.g. 1500 milliliter</t>
+  </si>
+  <si>
+    <t>Cloning vector type(s) used in construction of libraries</t>
+  </si>
+  <si>
+    <t>e.g. Bacteriophage P1</t>
+  </si>
+  <si>
+    <t>Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. Both adapters should be reported; in uppercase letters</t>
+  </si>
+  <si>
+    <t>e.g. AATGATACGGCGACCACCGAGATCTACACGCT;CAAGCAGAAGACGGCATACGAGAT</t>
+  </si>
+  <si>
+    <t>A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed</t>
+  </si>
+  <si>
+    <t>e.g. filtering of seawater, storing samples in ethanol</t>
+  </si>
+  <si>
+    <t>Date at which the pool was created.</t>
+  </si>
+  <si>
+    <t>e.g. YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>A link to the protocol for pool of specimens creation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. </t>
+  </si>
+  <si>
+    <t>The design of the library including details of how it was constructed.</t>
+  </si>
+  <si>
+    <t>sequencing_id</t>
+  </si>
+  <si>
+    <t>sequencing_platform_name</t>
+  </si>
+  <si>
+    <t>sequencing_instrument_model</t>
+  </si>
+  <si>
     <t>lib_layout</t>
   </si>
   <si>
-    <t>lib_vector</t>
-  </si>
-  <si>
-    <t>adapters</t>
-  </si>
-  <si>
-    <t>samp_mat_process</t>
-  </si>
-  <si>
-    <t>pool_creation_date</t>
-  </si>
-  <si>
-    <t>pool_creation_protocol</t>
-  </si>
-  <si>
-    <t>design_description</t>
-  </si>
-  <si>
-    <t>library_prep_kit (optional)</t>
-  </si>
-  <si>
-    <t>amplification_method (optional)</t>
-  </si>
-  <si>
-    <t>average_size_distribution (optional)</t>
-  </si>
-  <si>
-    <t>lib_construction_method (optional)</t>
-  </si>
-  <si>
-    <t>input_molecule (optional)</t>
-  </si>
-  <si>
-    <t>primer (optional)</t>
-  </si>
-  <si>
-    <t>end_bias (optional)</t>
-  </si>
-  <si>
-    <t>library_strand (optional)</t>
-  </si>
-  <si>
-    <t>spike_type (optional)</t>
-  </si>
-  <si>
-    <t>spike_in_dilution_or_concentration (optional)</t>
-  </si>
-  <si>
-    <t>plate_id (optional)</t>
-  </si>
-  <si>
-    <t>well_row (optional)</t>
-  </si>
-  <si>
-    <t>well_col (optional)</t>
-  </si>
-  <si>
-    <t>cell_phenotype (optional)</t>
-  </si>
-  <si>
-    <t>nucl_acid_amp (optional)</t>
-  </si>
-  <si>
-    <t>nucl_acid_ext (optional)</t>
-  </si>
-  <si>
-    <t>estimated_size (optional)</t>
-  </si>
-  <si>
-    <t>samp_vol_we_dna_ext (optional)</t>
-  </si>
-  <si>
-    <t>lib_layout (optional)</t>
-  </si>
-  <si>
-    <t>lib_vector (optional)</t>
-  </si>
-  <si>
-    <t>adapters (optional)</t>
-  </si>
-  <si>
-    <t>samp_mat_process (optional)</t>
-  </si>
-  <si>
-    <t>pool_creation_date (optional)</t>
-  </si>
-  <si>
-    <t>pool_creation_protocol (optional)</t>
-  </si>
-  <si>
-    <t>design_description (optional)</t>
-  </si>
-  <si>
-    <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
-  </si>
-  <si>
-    <t>e.g. libPrep123</t>
-  </si>
-  <si>
-    <t>A unique alphanumeric reference or identifier assigned to the cell suspension for the sample in the study.</t>
-  </si>
-  <si>
-    <t>e.g. sample123</t>
-  </si>
-  <si>
-    <t>Packaged kits (containing adapters, indexes, enzymes, buffers etc.), tailored for specific sequencing workflows, which allow the simplified preparation of sequencing-ready libraries for small genomes, amplicons, and plasmids</t>
-  </si>
-  <si>
-    <t>e.g. 10X Genomics Single Cell 3' v3</t>
-  </si>
-  <si>
-    <t>The version number of the library preparation kit used for sequencing.</t>
-  </si>
-  <si>
-    <t>e.g. 2</t>
-  </si>
-  <si>
-    <t>The method used to amplify the Complementary DNA (cDNA).</t>
-  </si>
-  <si>
-    <t>e.g. PCR</t>
-  </si>
-  <si>
-    <t>The number of cycles used during the Complementary DNA (cDNA) amplification process.</t>
-  </si>
-  <si>
-    <t>e.g. 12</t>
-  </si>
-  <si>
-    <t>The average length of RNA fragments in base pairs (BP) after library preparation, indicating the quality and suitability of the RNA for sequencing.</t>
-  </si>
-  <si>
-    <t>e.g. 350</t>
-  </si>
-  <si>
-    <t>The library construction method (including version) that was used.</t>
-  </si>
-  <si>
-    <t>e.g. Smart-Seq2</t>
-  </si>
-  <si>
-    <t>The specific fraction of biological macromolecule from which the sequencing library is derived.</t>
-  </si>
-  <si>
-    <t>e.g. RNA</t>
-  </si>
-  <si>
-    <t>The type of primer used for reverse transcription. This allows users to identify content of the cDNA library input for mRNA.</t>
-  </si>
-  <si>
-    <t>e.g. Random</t>
-  </si>
-  <si>
-    <t>The end from which the molecule was sequenced.</t>
-  </si>
-  <si>
-    <t>e.g. 5'</t>
-  </si>
-  <si>
-    <t>The end bias of the library.</t>
-  </si>
-  <si>
-    <t>e.g. 3</t>
-  </si>
-  <si>
-    <t>The Complementary DNA (cDNA) strand of the library from which the reads derived from - sense (first), antisense (second), both or none.</t>
-  </si>
-  <si>
-    <t>e.g. Antisense</t>
-  </si>
-  <si>
-    <t>External RNA added to the sample as a control to assess technical variability and normalization in RNA-sequencing. State whether spike-in was used.</t>
-  </si>
-  <si>
-    <t>e.g. Yes</t>
-  </si>
-  <si>
-    <t>The specific type of external RNA used for spiking in, often indicating the source or nature of the control RNA.</t>
-  </si>
-  <si>
-    <t>e.g. Synthetic RNA</t>
-  </si>
-  <si>
-    <t>The final concentration or dilution (for commercial sets) of the spike in mix.</t>
-  </si>
-  <si>
-    <t>e.g. 1:1000</t>
-  </si>
-  <si>
-    <t>Barcode sequence used on the i5 adapter during library preparation for identifying samples in multiplexed single-cell RNA-sequencing.</t>
-  </si>
-  <si>
-    <t>e.g. ATCACG</t>
-  </si>
-  <si>
-    <t>Barcode sequence used on the i7 adapter to distinguish samples in multiplexed sequencing runs.</t>
-  </si>
-  <si>
-    <t>e.g. CGATGT</t>
-  </si>
-  <si>
-    <t>Specifies if both i5 and i7 indices (dual) or only one index (single) was used for sample identification during sequencing.</t>
-  </si>
-  <si>
-    <t>e.g. Dual</t>
-  </si>
-  <si>
-    <t>The nucleotide sequence of the i5 index used in multiplexing during sequencing.</t>
-  </si>
-  <si>
-    <t>e.g. ATCGTAGC</t>
-  </si>
-  <si>
-    <t>The specific nucleotide sequence of the i7 index used for a sample.</t>
-  </si>
-  <si>
-    <t>e.g. TGCATGCA</t>
-  </si>
-  <si>
-    <t>Identifier for the 96-well plate used in sample preparation.</t>
-  </si>
-  <si>
-    <t>e.g. plate123</t>
-  </si>
-  <si>
-    <t>The row identifier in a 96-well plate indicating the sample's position.</t>
-  </si>
-  <si>
-    <t>e.g. A</t>
-  </si>
-  <si>
-    <t>The column identifier in a 96-well plate indicating the sample's position.</t>
-  </si>
-  <si>
-    <t>e.g. 5</t>
-  </si>
-  <si>
-    <t>The cell marker for the Fluorescence-Activated Cell Sorting (FACS) of cells.</t>
-  </si>
-  <si>
-    <t>e.g. CD41-</t>
-  </si>
-  <si>
-    <t>A link to a literature reference, electronic resource or a standard operating procedure (SOP), that describes the enzymatic amplification (PCR, TMA, NASBA) of specific nucleic acids. The link can be a PMID, DOI or URL.</t>
-  </si>
-  <si>
-    <t>e.g. https://phylogenomics.me/protocols/16s-pcr-protocol/</t>
-  </si>
-  <si>
-    <t>A link to a literature reference, electronic resource or a standard operating procedure (SOP), that describes the material separation to recover the nucleic acid fraction from a sample</t>
-  </si>
-  <si>
-    <t>e.g. https://mobio.com/media/wysiwyg/pdfs/protocols/12888.pdf</t>
-  </si>
-  <si>
-    <t>The estimated size of the genome prior to sequencing in base pairs (bp). Of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period</t>
-  </si>
-  <si>
-    <t>e.g. 300000</t>
-  </si>
-  <si>
-    <t>Volume (ml) or mass (g) of total collected sample processed for DNA extraction.</t>
-  </si>
-  <si>
-    <t>e.g. 1500 milliliter</t>
-  </si>
-  <si>
-    <t>Specify whether to expect single, paired, or other configuration of reads</t>
+    <t>umi_barcode_read</t>
+  </si>
+  <si>
+    <t>umi_barcode_offset</t>
+  </si>
+  <si>
+    <t>umi_barcode_size</t>
+  </si>
+  <si>
+    <t>cell_barcode_read</t>
+  </si>
+  <si>
+    <t>cell_barcode_offset</t>
+  </si>
+  <si>
+    <t>cell_barcode_size</t>
+  </si>
+  <si>
+    <t>cdna_read</t>
+  </si>
+  <si>
+    <t>cdna_read_offset</t>
+  </si>
+  <si>
+    <t>cdna_read_size</t>
+  </si>
+  <si>
+    <t>lib_size</t>
+  </si>
+  <si>
+    <t>compl_score</t>
+  </si>
+  <si>
+    <t>lib_reads_seq</t>
+  </si>
+  <si>
+    <t>number_contig</t>
+  </si>
+  <si>
+    <t>num_replicons</t>
+  </si>
+  <si>
+    <t>umi_barcode_read (optional)</t>
+  </si>
+  <si>
+    <t>umi_barcode_offset (optional)</t>
+  </si>
+  <si>
+    <t>umi_barcode_size (optional)</t>
+  </si>
+  <si>
+    <t>cell_barcode_read (optional)</t>
+  </si>
+  <si>
+    <t>cell_barcode_offset (optional)</t>
+  </si>
+  <si>
+    <t>cell_barcode_size (optional)</t>
+  </si>
+  <si>
+    <t>cdna_read_offset (optional)</t>
+  </si>
+  <si>
+    <t>cdna_read_size (optional)</t>
+  </si>
+  <si>
+    <t>lib_size (optional)</t>
+  </si>
+  <si>
+    <t>compl_score (optional)</t>
+  </si>
+  <si>
+    <t>lib_reads_seq (optional)</t>
+  </si>
+  <si>
+    <t>number_contig (optional)</t>
+  </si>
+  <si>
+    <t>num_replicons (optional)</t>
+  </si>
+  <si>
+    <t>A unique alphanumeric reference or identifier for the sequencing protocol.</t>
+  </si>
+  <si>
+    <t>e.g. seq123</t>
+  </si>
+  <si>
+    <t>The name of the sequencing platform used for the experiment.</t>
+  </si>
+  <si>
+    <t>e.g. Pacbio</t>
+  </si>
+  <si>
+    <t>This refers to the machine or platform used for sequencing, with variations in throughput, read lengths, error rates, and application suitability.</t>
+  </si>
+  <si>
+    <t>e.g. Illumina NovaSeq 6000</t>
+  </si>
+  <si>
+    <t>Specify whether to expect single, paired, or other configuration of reads for sequencing</t>
   </si>
   <si>
     <t>e.g. Paired</t>
   </si>
   <si>
-    <t>Cloning vector type(s) used in construction of libraries</t>
-  </si>
-  <si>
-    <t>e.g. Bacteriophage P1</t>
-  </si>
-  <si>
-    <t>Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. Both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>e.g. AATGATACGGCGACCACCGAGATCTACACGCT;CAAGCAGAAGACGGCATACGAGAT</t>
-  </si>
-  <si>
-    <t>A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed</t>
-  </si>
-  <si>
-    <t>e.g. filtering of seawater, storing samples in ethanol</t>
-  </si>
-  <si>
-    <t>Date at which the pool was created.</t>
-  </si>
-  <si>
-    <t>e.g. YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>A link to the protocol for pool of specimens creation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e.g. </t>
-  </si>
-  <si>
-    <t>The design of the library including details of how it was constructed.</t>
-  </si>
-  <si>
-    <t>sequencing_id</t>
-  </si>
-  <si>
-    <t>sequencing_platform_name</t>
-  </si>
-  <si>
-    <t>sequencing_instrument_model</t>
-  </si>
-  <si>
-    <t>umi_barcode_read</t>
-  </si>
-  <si>
-    <t>umi_barcode_offset</t>
-  </si>
-  <si>
-    <t>umi_barcode_size</t>
-  </si>
-  <si>
-    <t>cell_barcode_read</t>
-  </si>
-  <si>
-    <t>cell_barcode_offset</t>
-  </si>
-  <si>
-    <t>cell_barcode_size</t>
-  </si>
-  <si>
-    <t>cdna_read</t>
-  </si>
-  <si>
-    <t>cdna_read_offset</t>
-  </si>
-  <si>
-    <t>cdna_read_size</t>
-  </si>
-  <si>
-    <t>lib_size</t>
-  </si>
-  <si>
-    <t>compl_score</t>
-  </si>
-  <si>
-    <t>lib_reads_seq</t>
-  </si>
-  <si>
-    <t>number_contig</t>
-  </si>
-  <si>
-    <t>num_replicons</t>
-  </si>
-  <si>
-    <t>umi_barcode_read (optional)</t>
-  </si>
-  <si>
-    <t>umi_barcode_offset (optional)</t>
-  </si>
-  <si>
-    <t>umi_barcode_size (optional)</t>
-  </si>
-  <si>
-    <t>cell_barcode_read (optional)</t>
-  </si>
-  <si>
-    <t>cell_barcode_offset (optional)</t>
-  </si>
-  <si>
-    <t>cell_barcode_size (optional)</t>
-  </si>
-  <si>
-    <t>cdna_read_offset (optional)</t>
-  </si>
-  <si>
-    <t>cdna_read_size (optional)</t>
-  </si>
-  <si>
-    <t>lib_size (optional)</t>
-  </si>
-  <si>
-    <t>compl_score (optional)</t>
-  </si>
-  <si>
-    <t>lib_reads_seq (optional)</t>
-  </si>
-  <si>
-    <t>number_contig (optional)</t>
-  </si>
-  <si>
-    <t>num_replicons (optional)</t>
-  </si>
-  <si>
-    <t>A unique alphanumeric reference or identifier for the sequencing protocol.</t>
-  </si>
-  <si>
-    <t>e.g. seq123</t>
-  </si>
-  <si>
-    <t>The name of the sequencing platform used for the experiment.</t>
-  </si>
-  <si>
-    <t>e.g. Pacbio</t>
-  </si>
-  <si>
-    <t>This refers to the machine or platform used for sequencing, with variations in throughput, read lengths, error rates, and application suitability.</t>
-  </si>
-  <si>
-    <t>e.g. Illumina NovaSeq 6000</t>
-  </si>
-  <si>
-    <t>Specify whether to expect single, paired, or other configuration of reads for sequencing</t>
-  </si>
-  <si>
     <t>The type of read that contains the Unique Molecular Identifier (UMI) barcode.</t>
   </si>
   <si>
@@ -1916,16 +1910,16 @@
     <t>index_2_file</t>
   </si>
   <si>
-    <t>read_1_checksum</t>
-  </si>
-  <si>
-    <t>read_2_checksum</t>
-  </si>
-  <si>
-    <t>index_1_checksum</t>
-  </si>
-  <si>
-    <t>index_2_checksum</t>
+    <t>read_1_file_checksum</t>
+  </si>
+  <si>
+    <t>read_2_file_checksum</t>
+  </si>
+  <si>
+    <t>index_1_file_checksum</t>
+  </si>
+  <si>
+    <t>index_2_file_checksum</t>
   </si>
   <si>
     <t>white_list_barcode_file</t>
@@ -1943,10 +1937,10 @@
     <t>index_1_file (optional)</t>
   </si>
   <si>
-    <t>read_2_checksum (optional)</t>
-  </si>
-  <si>
-    <t>index_2_checksum (optional)</t>
+    <t>read_2_file_checksum (optional)</t>
+  </si>
+  <si>
+    <t>index_2_file_checksum (optional)</t>
   </si>
   <si>
     <t>white_list_barcode_file (optional)</t>
@@ -1967,13 +1961,13 @@
     <t>e.g. file2_r2.fastq.gz</t>
   </si>
   <si>
-    <t>The name or accession of the file that contains index 1.</t>
+    <t>The name of the file that contains index 1.</t>
   </si>
   <si>
     <t>e.g. file1_i1.fastq.gz</t>
   </si>
   <si>
-    <t>The name or accession of the file that contains index 2.</t>
+    <t>The name of the file that contains index 2.</t>
   </si>
   <si>
     <t>e.g. file2_i2.fastq.gz</t>
@@ -2450,7 +2444,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="9820" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E64B" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2575,7 +2569,7 @@
       <c r="I4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BA69" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B73E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:I4"/>
   </mergeCells>
@@ -2611,7 +2605,7 @@
   <sheetData>
     <row r="5" spans="4:31">
       <c r="D5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F5" t="s">
         <v>213</v>
@@ -2622,7 +2616,7 @@
     </row>
     <row r="6" spans="4:31">
       <c r="D6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F6" t="s">
         <v>214</v>
@@ -2633,7 +2627,7 @@
     </row>
     <row r="7" spans="4:31">
       <c r="D7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F7" t="s">
         <v>215</v>
@@ -2644,7 +2638,7 @@
     </row>
     <row r="8" spans="4:31">
       <c r="D8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F8" t="s">
         <v>216</v>
@@ -2655,7 +2649,7 @@
     </row>
     <row r="9" spans="4:31">
       <c r="D9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F9" t="s">
         <v>217</v>
@@ -2666,7 +2660,7 @@
     </row>
     <row r="10" spans="4:31">
       <c r="D10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F10" t="s">
         <v>218</v>
@@ -2677,7 +2671,7 @@
     </row>
     <row r="11" spans="4:31">
       <c r="D11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F11" t="s">
         <v>219</v>
@@ -2688,7 +2682,7 @@
     </row>
     <row r="12" spans="4:31">
       <c r="D12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F12" t="s">
         <v>220</v>
@@ -2699,7 +2693,7 @@
     </row>
     <row r="13" spans="4:31">
       <c r="D13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F13" t="s">
         <v>221</v>
@@ -2710,7 +2704,7 @@
     </row>
     <row r="14" spans="4:31">
       <c r="D14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F14" t="s">
         <v>222</v>
@@ -2721,7 +2715,7 @@
     </row>
     <row r="15" spans="4:31">
       <c r="D15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F15" t="s">
         <v>223</v>
@@ -2732,7 +2726,7 @@
     </row>
     <row r="16" spans="4:31">
       <c r="D16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F16" t="s">
         <v>224</v>
@@ -2743,7 +2737,7 @@
     </row>
     <row r="17" spans="4:31">
       <c r="D17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F17" t="s">
         <v>225</v>
@@ -2754,7 +2748,7 @@
     </row>
     <row r="18" spans="4:31">
       <c r="D18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F18" t="s">
         <v>226</v>
@@ -2765,7 +2759,7 @@
     </row>
     <row r="19" spans="4:31">
       <c r="D19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F19" t="s">
         <v>227</v>
@@ -2776,7 +2770,7 @@
     </row>
     <row r="20" spans="4:31">
       <c r="D20" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F20" t="s">
         <v>228</v>
@@ -2787,7 +2781,7 @@
     </row>
     <row r="21" spans="4:31">
       <c r="D21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F21" t="s">
         <v>229</v>
@@ -2798,7 +2792,7 @@
     </row>
     <row r="22" spans="4:31">
       <c r="D22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F22" t="s">
         <v>230</v>
@@ -2809,7 +2803,7 @@
     </row>
     <row r="23" spans="4:31">
       <c r="D23" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F23" t="s">
         <v>231</v>
@@ -2820,7 +2814,7 @@
     </row>
     <row r="24" spans="4:31">
       <c r="D24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F24" t="s">
         <v>232</v>
@@ -2831,7 +2825,7 @@
     </row>
     <row r="25" spans="4:31">
       <c r="D25" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F25" t="s">
         <v>233</v>
@@ -2842,7 +2836,7 @@
     </row>
     <row r="26" spans="4:31">
       <c r="D26" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F26" t="s">
         <v>234</v>
@@ -2853,7 +2847,7 @@
     </row>
     <row r="27" spans="4:31">
       <c r="D27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F27" t="s">
         <v>235</v>
@@ -2864,7 +2858,7 @@
     </row>
     <row r="28" spans="4:31">
       <c r="D28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F28" t="s">
         <v>236</v>
@@ -2875,7 +2869,7 @@
     </row>
     <row r="29" spans="4:31">
       <c r="D29" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F29" t="s">
         <v>237</v>
@@ -2886,7 +2880,7 @@
     </row>
     <row r="30" spans="4:31">
       <c r="D30" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F30" t="s">
         <v>238</v>
@@ -2897,7 +2891,7 @@
     </row>
     <row r="31" spans="4:31">
       <c r="D31" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F31" t="s">
         <v>239</v>
@@ -2908,7 +2902,7 @@
     </row>
     <row r="32" spans="4:31">
       <c r="D32" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F32" t="s">
         <v>240</v>
@@ -2919,7 +2913,7 @@
     </row>
     <row r="33" spans="4:31">
       <c r="D33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F33" t="s">
         <v>241</v>
@@ -2930,7 +2924,7 @@
     </row>
     <row r="34" spans="4:31">
       <c r="D34" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F34" t="s">
         <v>242</v>
@@ -2941,7 +2935,7 @@
     </row>
     <row r="35" spans="4:31">
       <c r="D35" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F35" t="s">
         <v>243</v>
@@ -2952,7 +2946,7 @@
     </row>
     <row r="36" spans="4:31">
       <c r="D36" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F36" t="s">
         <v>244</v>
@@ -2960,7 +2954,7 @@
     </row>
     <row r="37" spans="4:31">
       <c r="D37" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F37" t="s">
         <v>245</v>
@@ -2968,7 +2962,7 @@
     </row>
     <row r="38" spans="4:31">
       <c r="D38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F38" t="s">
         <v>246</v>
@@ -2976,7 +2970,7 @@
     </row>
     <row r="39" spans="4:31">
       <c r="D39" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F39" t="s">
         <v>247</v>
@@ -2984,7 +2978,7 @@
     </row>
     <row r="40" spans="4:31">
       <c r="D40" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F40" t="s">
         <v>248</v>
@@ -2992,7 +2986,7 @@
     </row>
     <row r="41" spans="4:31">
       <c r="D41" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F41" t="s">
         <v>249</v>
@@ -3000,7 +2994,7 @@
     </row>
     <row r="42" spans="4:31">
       <c r="D42" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F42" t="s">
         <v>250</v>
@@ -3008,7 +3002,7 @@
     </row>
     <row r="43" spans="4:31">
       <c r="D43" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F43" t="s">
         <v>251</v>
@@ -3016,7 +3010,7 @@
     </row>
     <row r="44" spans="4:31">
       <c r="D44" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F44" t="s">
         <v>252</v>
@@ -3024,7 +3018,7 @@
     </row>
     <row r="45" spans="4:31">
       <c r="D45" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F45" t="s">
         <v>253</v>
@@ -3032,7 +3026,7 @@
     </row>
     <row r="46" spans="4:31">
       <c r="D46" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F46" t="s">
         <v>254</v>
@@ -3040,7 +3034,7 @@
     </row>
     <row r="47" spans="4:31">
       <c r="D47" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F47" t="s">
         <v>255</v>
@@ -3048,7 +3042,7 @@
     </row>
     <row r="48" spans="4:31">
       <c r="D48" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F48" t="s">
         <v>256</v>
@@ -3056,7 +3050,7 @@
     </row>
     <row r="49" spans="4:6">
       <c r="D49" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F49" t="s">
         <v>257</v>
@@ -3064,7 +3058,7 @@
     </row>
     <row r="50" spans="4:6">
       <c r="D50" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F50" t="s">
         <v>258</v>
@@ -3072,7 +3066,7 @@
     </row>
     <row r="51" spans="4:6">
       <c r="D51" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F51" t="s">
         <v>259</v>
@@ -3080,7 +3074,7 @@
     </row>
     <row r="52" spans="4:6">
       <c r="D52" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F52" t="s">
         <v>260</v>
@@ -3088,7 +3082,7 @@
     </row>
     <row r="53" spans="4:6">
       <c r="D53" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F53" t="s">
         <v>261</v>
@@ -3096,7 +3090,7 @@
     </row>
     <row r="54" spans="4:6">
       <c r="D54" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F54" t="s">
         <v>262</v>
@@ -3104,7 +3098,7 @@
     </row>
     <row r="55" spans="4:6">
       <c r="D55" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F55" t="s">
         <v>263</v>
@@ -3112,7 +3106,7 @@
     </row>
     <row r="56" spans="4:6">
       <c r="D56" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F56" t="s">
         <v>264</v>
@@ -3120,7 +3114,7 @@
     </row>
     <row r="57" spans="4:6">
       <c r="D57" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F57" t="s">
         <v>265</v>
@@ -3128,7 +3122,7 @@
     </row>
     <row r="58" spans="4:6">
       <c r="D58" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F58" t="s">
         <v>266</v>
@@ -3136,7 +3130,7 @@
     </row>
     <row r="59" spans="4:6">
       <c r="D59" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F59" t="s">
         <v>267</v>
@@ -3144,7 +3138,7 @@
     </row>
     <row r="60" spans="4:6">
       <c r="D60" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F60" t="s">
         <v>268</v>
@@ -3152,7 +3146,7 @@
     </row>
     <row r="61" spans="4:6">
       <c r="D61" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F61" t="s">
         <v>269</v>
@@ -3160,7 +3154,7 @@
     </row>
     <row r="62" spans="4:6">
       <c r="D62" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F62" t="s">
         <v>270</v>
@@ -3168,7 +3162,7 @@
     </row>
     <row r="63" spans="4:6">
       <c r="D63" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F63" t="s">
         <v>271</v>
@@ -3176,7 +3170,7 @@
     </row>
     <row r="64" spans="4:6">
       <c r="D64" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F64" t="s">
         <v>272</v>
@@ -3184,7 +3178,7 @@
     </row>
     <row r="65" spans="4:6">
       <c r="D65" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F65" t="s">
         <v>273</v>
@@ -3192,7 +3186,7 @@
     </row>
     <row r="66" spans="4:6">
       <c r="D66" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F66" t="s">
         <v>274</v>
@@ -3200,7 +3194,7 @@
     </row>
     <row r="67" spans="4:6">
       <c r="D67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F67" t="s">
         <v>275</v>
@@ -3208,7 +3202,7 @@
     </row>
     <row r="68" spans="4:6">
       <c r="D68" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F68" t="s">
         <v>276</v>
@@ -3216,7 +3210,7 @@
     </row>
     <row r="69" spans="4:6">
       <c r="D69" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F69" t="s">
         <v>277</v>
@@ -3224,7 +3218,7 @@
     </row>
     <row r="70" spans="4:6">
       <c r="D70" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F70" t="s">
         <v>278</v>
@@ -3232,7 +3226,7 @@
     </row>
     <row r="71" spans="4:6">
       <c r="D71" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F71" t="s">
         <v>279</v>
@@ -3240,7 +3234,7 @@
     </row>
     <row r="72" spans="4:6">
       <c r="D72" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F72" t="s">
         <v>280</v>
@@ -3248,7 +3242,7 @@
     </row>
     <row r="73" spans="4:6">
       <c r="D73" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F73" t="s">
         <v>281</v>
@@ -3256,7 +3250,7 @@
     </row>
     <row r="74" spans="4:6">
       <c r="D74" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F74" t="s">
         <v>282</v>
@@ -3264,7 +3258,7 @@
     </row>
     <row r="75" spans="4:6">
       <c r="D75" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F75" t="s">
         <v>283</v>
@@ -3272,7 +3266,7 @@
     </row>
     <row r="76" spans="4:6">
       <c r="D76" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F76" t="s">
         <v>284</v>
@@ -3280,7 +3274,7 @@
     </row>
     <row r="77" spans="4:6">
       <c r="D77" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F77" t="s">
         <v>285</v>
@@ -3288,7 +3282,7 @@
     </row>
     <row r="78" spans="4:6">
       <c r="D78" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F78" t="s">
         <v>286</v>
@@ -3296,7 +3290,7 @@
     </row>
     <row r="79" spans="4:6">
       <c r="D79" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F79" t="s">
         <v>287</v>
@@ -3304,7 +3298,7 @@
     </row>
     <row r="80" spans="4:6">
       <c r="D80" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F80" t="s">
         <v>288</v>
@@ -3312,7 +3306,7 @@
     </row>
     <row r="81" spans="4:6">
       <c r="D81" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F81" t="s">
         <v>289</v>
@@ -3320,7 +3314,7 @@
     </row>
     <row r="82" spans="4:6">
       <c r="D82" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F82" t="s">
         <v>290</v>
@@ -3328,7 +3322,7 @@
     </row>
     <row r="83" spans="4:6">
       <c r="D83" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F83" t="s">
         <v>291</v>
@@ -3336,7 +3330,7 @@
     </row>
     <row r="84" spans="4:6">
       <c r="D84" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F84" t="s">
         <v>292</v>
@@ -3344,7 +3338,7 @@
     </row>
     <row r="85" spans="4:6">
       <c r="D85" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F85" t="s">
         <v>293</v>
@@ -3352,7 +3346,7 @@
     </row>
     <row r="86" spans="4:6">
       <c r="D86" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F86" t="s">
         <v>294</v>
@@ -3360,7 +3354,7 @@
     </row>
     <row r="87" spans="4:6">
       <c r="D87" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F87" t="s">
         <v>295</v>
@@ -3595,7 +3589,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9183" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9459" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4020,7 +4014,7 @@
       <c r="AJ4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C944" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9FE0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AJ4"/>
   </mergeCells>
@@ -4058,7 +4052,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4095,16 +4089,15 @@
     <col min="29" max="29" width="72.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="181.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="71.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="64.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="48.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="145.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="143.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="32.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="47.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="61" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="48.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="145.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="143.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="32.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="47.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="61" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:37">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -4115,46 +4108,46 @@
         <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>352</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>354</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>359</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>362</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>365</v>
@@ -4172,287 +4165,278 @@
         <v>369</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>125</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>462</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>173</v>
       </c>
       <c r="AD2" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="AK2" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="AC3" s="5" t="s">
         <v>174</v>
       </c>
       <c r="AD3" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE3" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="AJ3" s="5" t="s">
-        <v>477</v>
-      </c>
       <c r="AK3" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -4492,19 +4476,18 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DE9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A579" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:AL4"/>
+    <mergeCell ref="A4:AK4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:AL4">
+  <conditionalFormatting sqref="A1:AK4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="K5:K1005">
       <formula1>"Oligo-Dt,Random"</formula1>
     </dataValidation>
@@ -4525,9 +4508,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="Z5:Z1005">
       <formula1>"Cd41+,Cd41-"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="AF5:AF1005">
-      <formula1>"Other,Paired,Single,Vector"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4567,58 +4547,58 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>378</v>
+        <v>480</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -4626,58 +4606,58 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>526</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>539</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4685,58 +4665,58 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>525</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>540</v>
-      </c>
       <c r="S3" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4763,7 +4743,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8B5F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CE9E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4806,7 +4786,7 @@
     <col min="3" max="3" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="38.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="174.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -4819,46 +4799,46 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>627</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>642</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4866,46 +4846,46 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>659</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4913,46 +4893,46 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>653</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4975,7 +4955,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EFE6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8161" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_seq_mixs_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="660">
   <si>
     <t>key</t>
   </si>
@@ -1890,9 +1890,6 @@
   </si>
   <si>
     <t>Ug 100</t>
-  </si>
-  <si>
-    <t>lib_prep_id</t>
   </si>
   <si>
     <t>file_id</t>
@@ -2444,7 +2441,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E64B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BE4C" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2569,7 +2566,7 @@
       <c r="I4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B73E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D4BB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:I4"/>
   </mergeCells>
@@ -3589,7 +3586,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9459" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DE46" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4014,7 +4011,7 @@
       <c r="AJ4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9FE0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C389" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AJ4"/>
   </mergeCells>
@@ -4478,7 +4475,7 @@
       <c r="AK4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A579" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="967F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AK4"/>
   </mergeCells>
@@ -4743,7 +4740,7 @@
       <c r="S4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CE9E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9F5B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:S4"/>
   </mergeCells>
@@ -4799,46 +4796,46 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>623</v>
+        <v>350</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>477</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>640</v>
-      </c>
       <c r="N1" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4852,40 +4849,40 @@
         <v>508</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>642</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>655</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4902,37 +4899,37 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4955,7 +4952,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8161" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C5FA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
